--- a/11-CollaborationList/RHUL.xlsx
+++ b/11-CollaborationList/RHUL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A269D7-E569-B64E-9A92-7E652F3B5F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5655D-ED6B-384A-A252-CEA93041F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27100" yWindow="6260" windowWidth="28040" windowHeight="17440" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
+    <workbookView xWindow="3760" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
   <sheets>
     <sheet name="JohnAdamsInstitute" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Title</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Department of Physics, Royal Holloway University of London, Egham, Surrey, TW20 0EX, UK</t>
   </si>
   <si>
-    <t>John Adams Institute, Royal Holloway University of London</t>
-  </si>
-  <si>
     <t>0000-0002-1236-9249</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>RHUL-Physics</t>
+  </si>
+  <si>
+    <t>The John Adams Institute for Accelerator Science, Royal Holloway University of London</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A38D86E-A0CA-AC4E-9E28-0478CB9EC53A}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1132,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
@@ -1144,10 +1144,10 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
         <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
@@ -1158,22 +1158,22 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -1184,31 +1184,34 @@
       <c r="J3" t="s">
         <v>26</v>
       </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -1218,6 +1221,9 @@
       </c>
       <c r="J4" t="s">
         <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
